--- a/medicine/Enfance/Tirelire,_combines_et_cie/Tirelire,_combines_et_cie.xlsx
+++ b/medicine/Enfance/Tirelire,_combines_et_cie/Tirelire,_combines_et_cie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tirelire, combines et cie est un film québécois réalisé par Jean Beaudry, sorti en 1992[1]. Il fait partie de la série de films pour la jeunesse Contes pour tous produits par Rock Demers (Conte pour tous #13).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tirelire, combines et cie est un film québécois réalisé par Jean Beaudry, sorti en 1992. Il fait partie de la série de films pour la jeunesse Contes pour tous produits par Rock Demers (Conte pour tous #13).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles, un gamin de 12 ans qui a le sens des affaires, engage des plus petits pour diverses besognes que lui confient les gens de son quartier, tandis qu'il empoche les profits. Son meilleur ami et partenaire, Benoît, s'occupe quant à lui de la publicité et de la gestion pour s'assurer une clientèle fidèle. Il veut du même coup aider son père, qui l'élève seul. Nos deux hommes d'affaires contactent Marie, une cinéaste en herbe, pour réaliser un message publicitaire qui donnera d'excellents résultats. L'agence grandit, mais ses deux patrons ne s'entendent pas toujours sur le meilleur mode de gestion... 
 </t>
@@ -542,9 +556,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Source : IMDb et Films du Québec[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Source : IMDb et Films du Québec
 Titre original : Tirelire, combines et cie
 Réalisation : Jean Beaudry
 Scénario : Jacques A. Desjardins
@@ -567,10 +583,10 @@
 Genre : film d'aventures, film pour la jeunesse
 Durée : 89 minutes
 Dates de sortie :
-Canada : 29 juin 1992 (première à la Maison du cinéma à Sherbrooke)[3]
+Canada : 29 juin 1992 (première à la Maison du cinéma à Sherbrooke)
 Canada : 3 juillet 1992 (sortie en salle au Québec)
 Classification :
-Québec : Visa général[4]</t>
+Québec : Visa général</t>
         </is>
       </c>
     </row>
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vincent Bolduc : Benoît
